--- a/src/test/java/Utility/TestData.xlsx
+++ b/src/test/java/Utility/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10413"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1221007-EC91-564C-9F8E-1FBD412BDA22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8886EA0B-5FFF-1648-B99B-55140C28842A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="3" r:id="rId1"/>
@@ -98,9 +98,6 @@
     <t>1988</t>
   </si>
   <si>
-    <t>maheshdube01@gmail.com</t>
-  </si>
-  <si>
     <t>OBJ_Register</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>Locator Value</t>
+  </si>
+  <si>
+    <t>md27@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -259,8 +259,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,7 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -617,8 +617,8 @@
       <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>25</v>
+      <c r="E2" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -654,7 +654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -665,131 +665,131 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>56</v>
+      <c r="B1" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
